--- a/datamining/final_data/sorted2015_nltk.xlsx
+++ b/datamining/final_data/sorted2015_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ANW2"/>
+  <dimension ref="A1:AMH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,14 +457,14 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>reading</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>dbr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>reading</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>program</t>
@@ -517,19 +517,19 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>education</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>students</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>sense</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
           <t>graduates</t>
@@ -542,44 +542,44 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>programs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>well-being</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>programs</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>implicit</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>mathematicians</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>expert</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>peers</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>expert</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>mathematicians</t>
-        </is>
-      </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>high</t>
@@ -602,99 +602,99 @@
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
+          <t>achievement</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>development</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ib</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>social</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>achievement</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>indian</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>u.s.</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>development</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ib</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>indian</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>early</t>
-        </is>
-      </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>self-contained</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
           <t>reported</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>self-contained</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>school</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>twice-exceptional</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>mathematically</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>twice-exceptional</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>talented</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>instrument</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>pwi-a</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>academic</t>
-        </is>
-      </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
@@ -702,144 +702,144 @@
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
+          <t>enrollment</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
           <t>grade</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>selective</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>older</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>selective</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>enrollment</t>
-        </is>
-      </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
+          <t>literature</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>self-concept</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>made</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>literature</t>
-        </is>
-      </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
+          <t>1924-june</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>abraham</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>j.</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>january</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>memoriam</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>tannenbaum</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
           <t>mathematics</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>perceptions</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>agency</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>saas-r</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>'s</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>friends</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>coursework</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>friendships</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>reciprocal</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>j.</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>abraham</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1924-june</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>memoriam</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>advocacy</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>networks</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>coursework</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>friends</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>january</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>saas-r</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>friendships</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>tannenbaum</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>participants</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>time</t>
@@ -847,114 +847,114 @@
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>advocacy</t>
+          <t>difficulties</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>straight-a</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>straight-a</t>
+          <t>approaches</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
+          <t>adversities</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
           <t>opportunities</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>outcomes</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>difficulties</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>adversities</t>
-        </is>
-      </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>approaches</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>authors</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>design-based</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>stem</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>design-based</t>
+          <t>lived</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>stem</t>
+          <t>childhood</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>accelerate</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
           <t>research</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>accelerated</t>
-        </is>
-      </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>childhood</t>
+          <t>based</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
+          <t>schools</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>comprehension</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>methods</t>
-        </is>
-      </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>differences</t>
@@ -962,247 +962,247 @@
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
+          <t>using</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>results</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>using</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>lived</t>
-        </is>
-      </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>concurrent</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>structured</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>high-ability</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>pre-ib</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
           <t>factor</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>results</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>pre-ib</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
+          <t>career</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>analysis</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>spectrum</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>also</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>identified</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>autism</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>sensemaking</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>disorder</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>analysis</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>showed</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>spectrum</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>structured</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>also</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>concurrent</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>high-ability</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>autism</t>
-        </is>
-      </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
+          <t>mathematical</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>additional</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
           <t>greater</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>toward</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>relatively</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>mathematical</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>sensemaking</t>
-        </is>
-      </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>additional</t>
+          <t>phenomenon</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
+          <t>likely</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarten</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>birthdate</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>findings</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
           <t>field</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>findings</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>discussed</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>week</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>finnish</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>solutions</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>accounted</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>hours</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>discussed</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>week</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>accounted</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>birthdate</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenon</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>likely</t>
-        </is>
-      </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>review</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>finnish</t>
+          <t>systematic</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>district</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>useful</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
@@ -1212,332 +1212,332 @@
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>context</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>prior</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>although</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>key</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>prior</t>
+          <t>found</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>future</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>excellence</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>invariance</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>systematic</t>
+          <t>control</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>well</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>excellence</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>items</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
+          <t>measurement</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
           <t>high-achieving</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>one</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>life</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>postacceleration</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
+          <t>researchers</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
           <t>grounded</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>skipping</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>analyses</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>science</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>coping</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>analyses</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>science</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>researchers</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>cope-and-grow</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
+          <t>independent</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>process-oriented</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>emotional</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>national</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>confirmatory</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>entrants</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>analyzed</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>baccalaureate</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>adolescent</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>little</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>concepts</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>grades</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>taiwan</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
           <t>retrospective</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>process-oriented</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>items</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>psychometric</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>responses</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>context-sensitive</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>experience</t>
-        </is>
-      </c>
-      <c r="GN1" s="1" t="inlineStr">
-        <is>
-          <t>invariance</t>
-        </is>
-      </c>
-      <c r="GO1" s="1" t="inlineStr">
-        <is>
-          <t>independent</t>
-        </is>
-      </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>national</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
-        <is>
-          <t>adolescent</t>
-        </is>
-      </c>
-      <c r="GR1" s="1" t="inlineStr">
-        <is>
-          <t>concepts</t>
-        </is>
-      </c>
-      <c r="GS1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrated</t>
-        </is>
-      </c>
-      <c r="GT1" s="1" t="inlineStr">
-        <is>
-          <t>cope-and-grow</t>
-        </is>
-      </c>
-      <c r="GU1" s="1" t="inlineStr">
-        <is>
-          <t>postacceleration</t>
-        </is>
-      </c>
-      <c r="GV1" s="1" t="inlineStr">
-        <is>
-          <t>taiwan</t>
-        </is>
-      </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>skipping</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
-        <is>
-          <t>grades</t>
-        </is>
-      </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>little</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>validity</t>
-        </is>
-      </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>entrants</t>
+          <t>across</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>disaggregated</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>baccalaureate</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>confirmatory</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>best</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>psychometric</t>
+          <t>paths</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
@@ -1547,617 +1547,617 @@
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>aspects</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>aspects</t>
+          <t>student</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>challenges</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>entrance</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>disaggregated</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>paths</t>
+          <t>motivations</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>university</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>self-determination</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>participated</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>challenges</t>
+          <t>attend</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>entrance</t>
+          <t>services</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>used</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>health</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>adolescence</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
+          <t>curriculum</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>friendship</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>environment</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
           <t>english</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
-        <is>
-          <t>used</t>
-        </is>
-      </c>
-      <c r="IK1" s="1" t="inlineStr">
-        <is>
-          <t>attend</t>
-        </is>
-      </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>finding</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>subjective</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>sem-r</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>incompatibility</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>nonparticipants</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
-        <is>
-          <t>subjective</t>
-        </is>
-      </c>
-      <c r="IN1" s="1" t="inlineStr">
-        <is>
-          <t>curriculum</t>
-        </is>
-      </c>
-      <c r="IO1" s="1" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-      <c r="IP1" s="1" t="inlineStr">
-        <is>
-          <t>motivations</t>
-        </is>
-      </c>
-      <c r="IQ1" s="1" t="inlineStr">
-        <is>
-          <t>friendship</t>
-        </is>
-      </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>adjustment</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>adolescence</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>thematic</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>finding</t>
+          <t>methodologies</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>self-determination</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>incompatibility</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>sem-r</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>adjustment</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
+          <t>average</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>demographic</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
           <t>cohort</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>counseling</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>interviews</t>
-        </is>
-      </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>international</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>demographic</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>cross-cultural</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>non-stem</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>allocation</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>methodologies</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>thematic</t>
+          <t>academics</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>brief</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>spending</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
+          <t>sciences</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>related</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>instructional</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>developed</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>maturity</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>including</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>secondary</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>disability</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>professional</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>special</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>failures</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>resource-oriented</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>similar</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>associated</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>within</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>included</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>subscale</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>structure</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>populations/underserved</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>stronger</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>generally</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>related</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>secondary</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>maturity</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>allocation</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>fast</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>brief</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>populations/underserved</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>professional</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="KB1" s="1" t="inlineStr">
-        <is>
-          <t>special</t>
-        </is>
-      </c>
-      <c r="KC1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="KD1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="KE1" s="1" t="inlineStr">
-        <is>
-          <t>failures</t>
-        </is>
-      </c>
-      <c r="KF1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="KG1" s="1" t="inlineStr">
-        <is>
-          <t>resource-oriented</t>
-        </is>
-      </c>
-      <c r="KH1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="KI1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="KJ1" s="1" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="KK1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
-      <c r="KL1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="KM1" s="1" t="inlineStr">
-        <is>
-          <t>structure</t>
-        </is>
-      </c>
-      <c r="KN1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="KO1" s="1" t="inlineStr">
-        <is>
-          <t>disability</t>
-        </is>
-      </c>
-      <c r="KP1" s="1" t="inlineStr">
-        <is>
-          <t>instructional</t>
-        </is>
-      </c>
-      <c r="KQ1" s="1" t="inlineStr">
-        <is>
-          <t>non-stem</t>
-        </is>
-      </c>
-      <c r="KR1" s="1" t="inlineStr">
-        <is>
-          <t>including</t>
-        </is>
-      </c>
-      <c r="KS1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>sciences</t>
+          <t>role</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>academics</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>cross-cultural</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>subsequent</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>spending</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>growing</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>interviewed</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>properties</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>receiving</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>limited</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>examining</t>
+          <t>even</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>subsequent</t>
+          <t>many</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>growing</t>
+          <t>important</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>properties</t>
+          <t>two</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>three</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>available</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>subscale</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>interviewed</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>become</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>indices</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>whether</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>receiving</t>
+          <t>mccoach</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>available</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>simultaneously</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>become</t>
+          <t>five-factor</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>fit</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>general</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>criterion-related</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>attitude</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>siegle</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>simultaneously</t>
+          <t>topics</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>topics</t>
+          <t>survey-revised</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>suggested</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
@@ -2167,3582 +2167,3377 @@
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>influenced</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
           <t>interests</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>learn</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>engineering</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>among</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>technology</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="MM1" s="1" t="inlineStr">
-        <is>
-          <t>individual</t>
-        </is>
-      </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>learn</t>
+          <t>aesthetics</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>previously</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>engineering</t>
+          <t>suggesting</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
+          <t>either</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>dual</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>concept</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>hierarchical</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>go</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>direction</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
-        <is>
-          <t>aesthetics</t>
-        </is>
-      </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>elegance</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>focus</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>individuals</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>would</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>perceived</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>convergent</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>viewed</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>like</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>malleable</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>evaluated</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
-        <is>
-          <t>suggesting</t>
-        </is>
-      </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>view</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>article</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>positively</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>purpose</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
-        <is>
-          <t>these</t>
-        </is>
-      </c>
-      <c r="NB1" s="1" t="inlineStr">
-        <is>
-          <t>evaluated</t>
-        </is>
-      </c>
-      <c r="NC1" s="1" t="inlineStr">
-        <is>
-          <t>article</t>
-        </is>
-      </c>
-      <c r="ND1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="NE1" s="1" t="inlineStr">
-        <is>
-          <t>positively</t>
-        </is>
-      </c>
-      <c r="NF1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="NG1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="NH1" s="1" t="inlineStr">
-        <is>
-          <t>convergent</t>
-        </is>
-      </c>
-      <c r="NI1" s="1" t="inlineStr">
-        <is>
-          <t>our</t>
-        </is>
-      </c>
-      <c r="NJ1" s="1" t="inlineStr">
-        <is>
-          <t>direction</t>
-        </is>
-      </c>
-      <c r="NK1" s="1" t="inlineStr">
-        <is>
-          <t>either</t>
-        </is>
-      </c>
-      <c r="NL1" s="1" t="inlineStr">
-        <is>
-          <t>previously</t>
-        </is>
-      </c>
-      <c r="NM1" s="1" t="inlineStr">
-        <is>
-          <t>individuals</t>
-        </is>
-      </c>
-      <c r="NN1" s="1" t="inlineStr">
-        <is>
-          <t>five-factor</t>
-        </is>
-      </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>hierarchical</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
-        <is>
-          <t>malleable</t>
-        </is>
-      </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>like</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
-        <is>
-          <t>attitude</t>
-        </is>
-      </c>
-      <c r="NS1" s="1" t="inlineStr">
-        <is>
-          <t>view</t>
-        </is>
-      </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>dual</t>
-        </is>
-      </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>insight</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>criterion-related</t>
+          <t>young</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>shows</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>fit</t>
+          <t>multigroup</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>for</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>youngest</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>american</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>viewed</t>
+          <t>title</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>logistic</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>indices</t>
+          <t>entry</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>gathered</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>survey-revised</t>
+          <t>schoolwide</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>siegle</t>
+          <t>successfully</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>posttest</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>mccoach</t>
+          <t>advantages</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>and/or</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>elegance</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>association</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>shows</t>
+          <t>confers</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>insight</t>
+          <t>controls</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>multigroup</t>
+          <t>disadvantages</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>disappeared</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>extra</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>disappeared</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
+          <t>identification</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>investigated</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>model-reading</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>nested</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>regression</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>study-kindergarten</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>though</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>variables</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>honors</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>seemed</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>revised</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>measure</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>relationships</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
           <t>examination</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>gathered</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>disadvantages</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>correlation</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>controls</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>extra</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>seemed</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>confers</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>measure</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
-        <is>
-          <t>association</t>
-        </is>
-      </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>advantages</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>american</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>revised</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>entry</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>logistic</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>such</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>comparison</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>younger</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>successfully</t>
-        </is>
-      </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>able</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>procreation</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>proposed</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>provocative</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>subotnik</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>study-kindergarten</t>
+          <t>slew</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>regression</t>
+          <t>titles</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>number</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>honors</t>
+          <t>olszewski-kubilius</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>worrell</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>nested</t>
+          <t>focusing</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>origin</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>youngest</t>
+          <t>media</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>result</t>
+          <t>notion</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>nine</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>focusing</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>areas</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>model-reading</t>
+          <t>book</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>posttest</t>
+          <t>categorized</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
+          <t>eminence</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>goals</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>grows</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>happens</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>inclusion</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>lifespan</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>diverse</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>mainstream</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
           <t>exceptional</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>schoolwide</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>treatment</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>enrichment</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>worrell</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>subotnik</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>slew</t>
-        </is>
-      </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>heterogeneity</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>per</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>provocative</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>proposed</t>
+          <t>engaging</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>procreation</t>
+          <t>intrinsic</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>origin</t>
+          <t>intrapersonal</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>olszewski-kubilius</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>notion</t>
+          <t>interview</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>nine</t>
+          <t>interventions</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>media</t>
+          <t>ensuring</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>mainstream</t>
+          <t>interrelated</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>lifespan</t>
+          <t>backgrounds</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>duplication</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>happens</t>
+          <t>functioning</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>defined</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>grows</t>
+          <t>valued</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>varied</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>eminence</t>
+          <t>expand</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>categorized</t>
+          <t>making</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>extends</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>framing</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>stimulation</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>per</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneity</t>
+          <t>situation</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>titles</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>several</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
+          <t>recommendations</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>challenging</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
           <t>rich</t>
         </is>
       </c>
-      <c r="SB1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>prestigious</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>finally</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>mutual</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>unable</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>grow</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>contexts</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>strivings</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>claims</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>distinct</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>decisions</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>curricular</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>cope</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>connections</t>
+        </is>
+      </c>
+      <c r="SS1" s="1" t="inlineStr">
+        <is>
+          <t>competition</t>
+        </is>
+      </c>
+      <c r="ST1" s="1" t="inlineStr">
         <is>
           <t>china</t>
         </is>
       </c>
-      <c r="SC1" s="1" t="inlineStr">
+      <c r="SU1" s="1" t="inlineStr">
+        <is>
+          <t>conducting</t>
+        </is>
+      </c>
+      <c r="SV1" s="1" t="inlineStr">
+        <is>
+          <t>big-fish-little-pond</t>
+        </is>
+      </c>
+      <c r="SW1" s="1" t="inlineStr">
+        <is>
+          <t>asynchrony</t>
+        </is>
+      </c>
+      <c r="SX1" s="1" t="inlineStr">
+        <is>
+          <t>aptitude</t>
+        </is>
+      </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>adaptation</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>divergent</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>overview</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>dominant</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>introduce</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>introduce</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>intrapersonal</t>
-        </is>
-      </c>
-      <c r="SG1" s="1" t="inlineStr">
-        <is>
-          <t>divergent</t>
-        </is>
-      </c>
-      <c r="SH1" s="1" t="inlineStr">
-        <is>
-          <t>often</t>
-        </is>
-      </c>
-      <c r="SI1" s="1" t="inlineStr">
-        <is>
-          <t>overview</t>
-        </is>
-      </c>
-      <c r="SJ1" s="1" t="inlineStr">
-        <is>
-          <t>competition</t>
-        </is>
-      </c>
-      <c r="SK1" s="1" t="inlineStr">
-        <is>
-          <t>dominant</t>
-        </is>
-      </c>
-      <c r="SL1" s="1" t="inlineStr">
-        <is>
-          <t>claims</t>
-        </is>
-      </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>give</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>features</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>explain</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>discuss</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
         <is>
           <t>effect</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="SO1" s="1" t="inlineStr">
-        <is>
-          <t>big-fish-little-pond</t>
-        </is>
-      </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>broadly</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>differential</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>extant</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
-        <is>
-          <t>functioning</t>
-        </is>
-      </c>
-      <c r="SR1" s="1" t="inlineStr">
-        <is>
-          <t>use</t>
-        </is>
-      </c>
-      <c r="SS1" s="1" t="inlineStr">
-        <is>
-          <t>asynchrony</t>
-        </is>
-      </c>
-      <c r="ST1" s="1" t="inlineStr">
-        <is>
-          <t>aptitude</t>
-        </is>
-      </c>
-      <c r="SU1" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="SV1" s="1" t="inlineStr">
-        <is>
-          <t>interview</t>
-        </is>
-      </c>
-      <c r="SW1" s="1" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="SX1" s="1" t="inlineStr">
-        <is>
-          <t>interventions</t>
-        </is>
-      </c>
-      <c r="SY1" s="1" t="inlineStr">
-        <is>
-          <t>give</t>
-        </is>
-      </c>
-      <c r="SZ1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="TA1" s="1" t="inlineStr">
-        <is>
-          <t>explain</t>
-        </is>
-      </c>
-      <c r="TB1" s="1" t="inlineStr">
-        <is>
-          <t>discuss</t>
-        </is>
-      </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>several</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
-        <is>
-          <t>situation</t>
-        </is>
-      </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>stimulation</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>strivings</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>introduces</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>-talented</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>representative</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
+        <is>
+          <t>selecting</t>
+        </is>
+      </c>
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>shiny</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>placement</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>e.g.</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>one-on-one</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="UE1" s="1" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>introduction</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>submission</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>outperformed</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>impacts</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>nonaccelerated</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>sufficient</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>expands</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>educators</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>rationale</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>designed</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>furthermore</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>confidential</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>grade-level</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>work</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
+        <is>
+          <t>verify</t>
+        </is>
+      </c>
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
+        <is>
+          <t>repeatedly</t>
+        </is>
+      </c>
+      <c r="UZ1" s="1" t="inlineStr">
+        <is>
+          <t>pace</t>
+        </is>
+      </c>
+      <c r="VA1" s="1" t="inlineStr">
+        <is>
+          <t>replications</t>
+        </is>
+      </c>
+      <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>themes</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
+      <c r="VC1" s="1" t="inlineStr">
+        <is>
+          <t>manuscript</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>measures</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
         <is>
           <t>theories</t>
         </is>
       </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>cope</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>interrelated</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
-        <is>
-          <t>curricular</t>
-        </is>
-      </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>twenty-four</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
         <is>
           <t>transition</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>connections</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>decisions</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>differential</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>prestigious</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>consistently</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>senior</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>single-gender</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>reviewed</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>coupled</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>science-related</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
         <is>
           <t>currently</t>
         </is>
       </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
-        <is>
-          <t>mutual</t>
-        </is>
-      </c>
-      <c r="TT1" s="1" t="inlineStr">
-        <is>
-          <t>backgrounds</t>
-        </is>
-      </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>making</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>distinct</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>intrinsic</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>grow</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>benefit</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>engaging</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>expand</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>extends</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>finally</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
-        <is>
-          <t>framing</t>
-        </is>
-      </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>confidential</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
-        <is>
-          <t>introduces</t>
-        </is>
-      </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>introduction</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>manuscript</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>measures</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>uses</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
         <is>
           <t>much</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>-talented</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>power</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>challenging</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>readers</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>recommendations</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>ensuring</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>duplication</t>
-        </is>
-      </c>
-      <c r="VA1" s="1" t="inlineStr">
-        <is>
-          <t>reviewed</t>
-        </is>
-      </c>
-      <c r="VB1" s="1" t="inlineStr">
-        <is>
-          <t>defined</t>
-        </is>
-      </c>
-      <c r="VC1" s="1" t="inlineStr">
-        <is>
-          <t>good</t>
-        </is>
-      </c>
-      <c r="VD1" s="1" t="inlineStr">
-        <is>
-          <t>varied</t>
-        </is>
-      </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
-        <is>
-          <t>valued</t>
-        </is>
-      </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>valuable</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>unable</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>twenty-four</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>single-gender</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>senior</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>science-related</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>pace</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>one-on-one</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>most</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>major</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>investigate</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>impacts</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>educators</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>broadly</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
-        <is>
-          <t>conducting</t>
-        </is>
-      </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>preparation</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>contexts</t>
+          <t>size</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>replications</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>rationale</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>outperformed</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>produce</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>lane</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>grade-level</t>
+          <t>rating</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>nonaccelerated</t>
+          <t>whereby</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>furthermore</t>
+          <t>standpoint</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>same</t>
+          <t>illuminate</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>scaling</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>placement</t>
+          <t>socializing</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>sorting</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>profit</t>
+          <t>took</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>repeatedly</t>
+          <t>trochim</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>representative</t>
+          <t>revisited</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>underutilized</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>views</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>verify</t>
+          <t>active</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>described</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>skipped</t>
+          <t>seeking</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>selecting</t>
+          <t>designing</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>coupled</t>
+          <t>flexible</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>consistently</t>
+          <t>self-fulfillment</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>sufficient</t>
+          <t>navigating</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>shiny</t>
+          <t>diagnosed</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>submission</t>
+          <t>due</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
+          <t>examines</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>find</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>significant</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>whereas</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>planned</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>ahead</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>diminish</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>cues</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>conversely</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>considerable</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>case</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>agents</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>adulthood</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>addressed</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="XB1" s="1" t="inlineStr">
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>benefits</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>effortful</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>brainstormed</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>recognized</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>qualitatively</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>placements</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>carefully</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>shared</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>challenge</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>relation</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>easy</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>effortless</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualization</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>prevented</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>victories</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>unexplored</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>teacher</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>systemic</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>self-directed</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>resulting</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>remained</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>proper</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>past</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>parent</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>obtained</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>multiple-case</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>maintaining</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>largely</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>highest</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>gifted-level</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>extraordinary</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>chose</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>conceptualizing</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>deeper</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>extending</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
+        <is>
+          <t>transcribed</t>
+        </is>
+      </c>
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrating</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
+        <is>
+          <t>enroll</t>
+        </is>
+      </c>
+      <c r="ZK1" s="1" t="inlineStr">
+        <is>
+          <t>exercise</t>
+        </is>
+      </c>
+      <c r="ZL1" s="1" t="inlineStr">
+        <is>
+          <t>getting</t>
+        </is>
+      </c>
+      <c r="ZM1" s="1" t="inlineStr">
         <is>
           <t>importance</t>
         </is>
       </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>deeper</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>self-fulfillment</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>accelerate</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="XG1" s="1" t="inlineStr">
+      <c r="ZN1" s="1" t="inlineStr">
+        <is>
+          <t>initiative</t>
+        </is>
+      </c>
+      <c r="ZO1" s="1" t="inlineStr">
+        <is>
+          <t>existed</t>
+        </is>
+      </c>
+      <c r="ZP1" s="1" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="ZQ1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="ZR1" s="1" t="inlineStr">
+        <is>
+          <t>2,048</t>
+        </is>
+      </c>
+      <c r="ZS1" s="1" t="inlineStr">
+        <is>
+          <t>738</t>
+        </is>
+      </c>
+      <c r="ZT1" s="1" t="inlineStr">
+        <is>
+          <t>love</t>
+        </is>
+      </c>
+      <c r="ZU1" s="1" t="inlineStr">
+        <is>
+          <t>aimed</t>
+        </is>
+      </c>
+      <c r="ZV1" s="1" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="ZW1" s="1" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="ZX1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="ZY1" s="1" t="inlineStr">
+        <is>
+          <t>comprehensive</t>
+        </is>
+      </c>
+      <c r="ZZ1" s="1" t="inlineStr">
+        <is>
+          <t>thirteen</t>
+        </is>
+      </c>
+      <c r="AAA1" s="1" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="AAB1" s="1" t="inlineStr">
+        <is>
+          <t>equivalence</t>
+        </is>
+      </c>
+      <c r="AAC1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="AAD1" s="1" t="inlineStr">
         <is>
           <t>concurrently</t>
         </is>
       </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>getting</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>socializing</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>sorting</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>enroll</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>exercise</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualizing</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
+      <c r="AAE1" s="1" t="inlineStr">
+        <is>
+          <t>rectify</t>
+        </is>
+      </c>
+      <c r="AAF1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="AAG1" s="1" t="inlineStr">
+        <is>
+          <t>reach</t>
+        </is>
+      </c>
+      <c r="AAH1" s="1" t="inlineStr">
+        <is>
+          <t>phenomenological</t>
+        </is>
+      </c>
+      <c r="AAI1" s="1" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="AAJ1" s="1" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="AAK1" s="1" t="inlineStr">
+        <is>
+          <t>predicts</t>
+        </is>
+      </c>
+      <c r="AAL1" s="1" t="inlineStr">
+        <is>
+          <t>paucity</t>
+        </is>
+      </c>
+      <c r="AAM1" s="1" t="inlineStr">
+        <is>
+          <t>offers</t>
+        </is>
+      </c>
+      <c r="AAN1" s="1" t="inlineStr">
+        <is>
+          <t>multidimensional</t>
+        </is>
+      </c>
+      <c r="AAO1" s="1" t="inlineStr">
+        <is>
+          <t>mapping</t>
+        </is>
+      </c>
+      <c r="AAP1" s="1" t="inlineStr">
+        <is>
+          <t>mixed-ability</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
         <is>
           <t>courses</t>
         </is>
       </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>initiative</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>ahead</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>brainstormed</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>whereby</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
-        <is>
-          <t>produce</t>
-        </is>
-      </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>preparation</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>carefully</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>planned</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>part</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>offers</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>seeking</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>multidimensional</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>mapping</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>challenge</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>map</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>love</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>risk</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>chose</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>conceptualization</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>benefits</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>scaling</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>testing</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>gains</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
         <is>
           <t>personnel</t>
         </is>
       </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>738</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>2,048</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>described</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>designing</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>diagnosed</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>due</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>examines</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>flexible</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>illuminate</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>navigating</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>significant</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>phenomenological</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>whereas</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>shared</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>qualitatively</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>recognized</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="ZL1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="ZM1" s="1" t="inlineStr">
-        <is>
-          <t>transcribed</t>
-        </is>
-      </c>
-      <c r="ZN1" s="1" t="inlineStr">
-        <is>
-          <t>thirteen</t>
-        </is>
-      </c>
-      <c r="ZO1" s="1" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="ZP1" s="1" t="inlineStr">
-        <is>
-          <t>teaching</t>
-        </is>
-      </c>
-      <c r="ZQ1" s="1" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="ZR1" s="1" t="inlineStr">
-        <is>
-          <t>aimed</t>
-        </is>
-      </c>
-      <c r="ZS1" s="1" t="inlineStr">
-        <is>
-          <t>placements</t>
-        </is>
-      </c>
-      <c r="ZT1" s="1" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="ZU1" s="1" t="inlineStr">
-        <is>
-          <t>revisited</t>
-        </is>
-      </c>
-      <c r="ZV1" s="1" t="inlineStr">
-        <is>
-          <t>present</t>
-        </is>
-      </c>
-      <c r="ZW1" s="1" t="inlineStr">
-        <is>
-          <t>reach</t>
-        </is>
-      </c>
-      <c r="ZX1" s="1" t="inlineStr">
-        <is>
-          <t>predicts</t>
-        </is>
-      </c>
-      <c r="ZY1" s="1" t="inlineStr">
-        <is>
-          <t>paucity</t>
-        </is>
-      </c>
-      <c r="ZZ1" s="1" t="inlineStr">
-        <is>
-          <t>understanding</t>
-        </is>
-      </c>
-      <c r="AAA1" s="1" t="inlineStr">
-        <is>
-          <t>underutilized</t>
-        </is>
-      </c>
-      <c r="AAB1" s="1" t="inlineStr">
-        <is>
-          <t>took</t>
-        </is>
-      </c>
-      <c r="AAC1" s="1" t="inlineStr">
-        <is>
-          <t>rectify</t>
-        </is>
-      </c>
-      <c r="AAD1" s="1" t="inlineStr">
-        <is>
-          <t>views</t>
-        </is>
-      </c>
-      <c r="AAE1" s="1" t="inlineStr">
-        <is>
-          <t>standpoint</t>
-        </is>
-      </c>
-      <c r="AAF1" s="1" t="inlineStr">
-        <is>
-          <t>mixed-ability</t>
-        </is>
-      </c>
-      <c r="AAG1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="AAH1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="AAI1" s="1" t="inlineStr">
-        <is>
-          <t>trochim</t>
-        </is>
-      </c>
-      <c r="AAJ1" s="1" t="inlineStr">
-        <is>
-          <t>relation</t>
-        </is>
-      </c>
-      <c r="AAK1" s="1" t="inlineStr">
-        <is>
-          <t>comprehensive</t>
-        </is>
-      </c>
-      <c r="AAL1" s="1" t="inlineStr">
+      <c r="AAT1" s="1" t="inlineStr">
         <is>
           <t>constitute</t>
         </is>
       </c>
-      <c r="AAM1" s="1" t="inlineStr">
-        <is>
-          <t>equivalence</t>
-        </is>
-      </c>
-      <c r="AAN1" s="1" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="AAO1" s="1" t="inlineStr">
-        <is>
-          <t>existed</t>
-        </is>
-      </c>
-      <c r="AAP1" s="1" t="inlineStr">
-        <is>
-          <t>extending</t>
-        </is>
-      </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>its</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>gains</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>case</t>
-        </is>
-      </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>easy</t>
+          <t>survival</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
+          <t>tools</t>
+        </is>
+      </c>
+      <c r="AAW1" s="1" t="inlineStr">
+        <is>
+          <t>top</t>
+        </is>
+      </c>
+      <c r="AAX1" s="1" t="inlineStr">
+        <is>
+          <t>upper</t>
+        </is>
+      </c>
+      <c r="AAY1" s="1" t="inlineStr">
+        <is>
+          <t>supporting</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>refer</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="ABB1" s="1" t="inlineStr">
+        <is>
+          <t>processes</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>pressure</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>mistakes</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>relevant</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>request</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>mailing</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>kinds</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>interviewing</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>hickman</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>heinrich</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>graduate</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="ABO1" s="1" t="inlineStr">
+        <is>
+          <t>sign</t>
+        </is>
+      </c>
+      <c r="ABP1" s="1" t="inlineStr">
+        <is>
+          <t>faced</t>
+        </is>
+      </c>
+      <c r="ABQ1" s="1" t="inlineStr">
+        <is>
+          <t>standing</t>
+        </is>
+      </c>
+      <c r="ABR1" s="1" t="inlineStr">
+        <is>
+          <t>mathwig</t>
+        </is>
+      </c>
+      <c r="ABS1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="ABT1" s="1" t="inlineStr">
+        <is>
+          <t>various</t>
+        </is>
+      </c>
+      <c r="ABU1" s="1" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="ABV1" s="1" t="inlineStr">
+        <is>
+          <t>modeling</t>
+        </is>
+      </c>
+      <c r="ABW1" s="1" t="inlineStr">
+        <is>
+          <t>needed</t>
+        </is>
+      </c>
+      <c r="ABX1" s="1" t="inlineStr">
+        <is>
+          <t>nominations</t>
+        </is>
+      </c>
+      <c r="ABY1" s="1" t="inlineStr">
+        <is>
+          <t>quantitative</t>
+        </is>
+      </c>
+      <c r="ABZ1" s="1" t="inlineStr">
+        <is>
+          <t>racially</t>
+        </is>
+      </c>
+      <c r="ACA1" s="1" t="inlineStr">
+        <is>
+          <t>received</t>
+        </is>
+      </c>
+      <c r="ACB1" s="1" t="inlineStr">
+        <is>
+          <t>reciprocation</t>
+        </is>
+      </c>
+      <c r="ACC1" s="1" t="inlineStr">
+        <is>
+          <t>sent</t>
+        </is>
+      </c>
+      <c r="ACD1" s="1" t="inlineStr">
+        <is>
+          <t>serve</t>
+        </is>
+      </c>
+      <c r="ACE1" s="1" t="inlineStr">
+        <is>
+          <t>small</t>
+        </is>
+      </c>
+      <c r="ACF1" s="1" t="inlineStr">
+        <is>
+          <t>somewhat</t>
+        </is>
+      </c>
+      <c r="ACG1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="ACH1" s="1" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="ACI1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="ACJ1" s="1" t="inlineStr">
+        <is>
+          <t>taking</t>
+        </is>
+      </c>
+      <c r="ACK1" s="1" t="inlineStr">
+        <is>
+          <t>listings</t>
+        </is>
+      </c>
+      <c r="ACL1" s="1" t="inlineStr">
+        <is>
+          <t>likelihood</t>
+        </is>
+      </c>
+      <c r="ACM1" s="1" t="inlineStr">
+        <is>
+          <t>weakness</t>
+        </is>
+      </c>
+      <c r="ACN1" s="1" t="inlineStr">
+        <is>
+          <t>less</t>
+        </is>
+      </c>
+      <c r="ACO1" s="1" t="inlineStr">
+        <is>
+          <t>wide-ranging</t>
+        </is>
+      </c>
+      <c r="ACP1" s="1" t="inlineStr">
+        <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>employ</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>competence</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>controlling</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>course-taking</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>diversity</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>engaged</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>engagement</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>exactly</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>exist</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>larger</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>essay</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>advocated</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>emphasize</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>divided</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>approximately</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>concern</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>discussions</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>electronics</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>far</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>globe</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>india</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>inform</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>leaving</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>math</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>proportion</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>roughly</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>spend</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>supports</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>systems</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>united</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>7-hour-a-week</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>acceptance</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>acquired</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>affirmation</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
           <t>university-based</t>
         </is>
       </c>
-      <c r="AAW1" s="1" t="inlineStr">
-        <is>
-          <t>addressed</t>
-        </is>
-      </c>
-      <c r="AAX1" s="1" t="inlineStr">
-        <is>
-          <t>weakness</t>
-        </is>
-      </c>
-      <c r="AAY1" s="1" t="inlineStr">
-        <is>
-          <t>adulthood</t>
-        </is>
-      </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>wide-ranging</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="ABB1" s="1" t="inlineStr">
-        <is>
-          <t>while</t>
-        </is>
-      </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>diminish</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>upper</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>agents</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>taking</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>cues</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>conversely</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>considerable</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>various</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>standing</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>tools</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="ABO1" s="1" t="inlineStr">
-        <is>
-          <t>graduate</t>
-        </is>
-      </c>
-      <c r="ABP1" s="1" t="inlineStr">
-        <is>
-          <t>have</t>
-        </is>
-      </c>
-      <c r="ABQ1" s="1" t="inlineStr">
-        <is>
-          <t>heinrich</t>
-        </is>
-      </c>
-      <c r="ABR1" s="1" t="inlineStr">
-        <is>
-          <t>hickman</t>
-        </is>
-      </c>
-      <c r="ABS1" s="1" t="inlineStr">
-        <is>
-          <t>interviewing</t>
-        </is>
-      </c>
-      <c r="ABT1" s="1" t="inlineStr">
-        <is>
-          <t>kinds</t>
-        </is>
-      </c>
-      <c r="ABU1" s="1" t="inlineStr">
-        <is>
-          <t>mailing</t>
-        </is>
-      </c>
-      <c r="ABV1" s="1" t="inlineStr">
-        <is>
-          <t>mathwig</t>
-        </is>
-      </c>
-      <c r="ABW1" s="1" t="inlineStr">
-        <is>
-          <t>mistakes</t>
-        </is>
-      </c>
-      <c r="ABX1" s="1" t="inlineStr">
-        <is>
-          <t>pressure</t>
-        </is>
-      </c>
-      <c r="ABY1" s="1" t="inlineStr">
-        <is>
-          <t>processes</t>
-        </is>
-      </c>
-      <c r="ABZ1" s="1" t="inlineStr">
-        <is>
-          <t>providing</t>
-        </is>
-      </c>
-      <c r="ACA1" s="1" t="inlineStr">
-        <is>
-          <t>refer</t>
-        </is>
-      </c>
-      <c r="ACB1" s="1" t="inlineStr">
-        <is>
-          <t>relevant</t>
-        </is>
-      </c>
-      <c r="ACC1" s="1" t="inlineStr">
-        <is>
-          <t>request</t>
-        </is>
-      </c>
-      <c r="ACD1" s="1" t="inlineStr">
-        <is>
-          <t>enhance</t>
-        </is>
-      </c>
-      <c r="ACE1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="ACF1" s="1" t="inlineStr">
-        <is>
-          <t>sign</t>
-        </is>
-      </c>
-      <c r="ACG1" s="1" t="inlineStr">
-        <is>
-          <t>effortless</t>
-        </is>
-      </c>
-      <c r="ACH1" s="1" t="inlineStr">
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>rely</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>relied</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>orientation</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>noticeable</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>multivariate</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>lives</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>interactions</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>instrumental</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>institutions</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>independence</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>favorable</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
+          <t>enhancing</t>
+        </is>
+      </c>
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>enhanced</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
+        <is>
+          <t>endorsed</t>
+        </is>
+      </c>
+      <c r="AEV1" s="1" t="inlineStr">
+        <is>
+          <t>ease</t>
+        </is>
+      </c>
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>causality</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>building</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>weekend</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>additionally</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
         <is>
           <t>sources</t>
         </is>
       </c>
-      <c r="ACI1" s="1" t="inlineStr">
-        <is>
-          <t>effortful</t>
-        </is>
-      </c>
-      <c r="ACJ1" s="1" t="inlineStr">
-        <is>
-          <t>supporting</t>
-        </is>
-      </c>
-      <c r="ACK1" s="1" t="inlineStr">
-        <is>
-          <t>survival</t>
-        </is>
-      </c>
-      <c r="ACL1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="ACM1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="ACN1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="ACO1" s="1" t="inlineStr">
-        <is>
-          <t>rely</t>
-        </is>
-      </c>
-      <c r="ACP1" s="1" t="inlineStr">
-        <is>
-          <t>relied</t>
-        </is>
-      </c>
-      <c r="ACQ1" s="1" t="inlineStr">
-        <is>
-          <t>engagement</t>
-        </is>
-      </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>exactly</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>exist</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
-        <is>
-          <t>explore</t>
-        </is>
-      </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>larger</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>less</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>likelihood</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>listings</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
-        <is>
-          <t>modeling</t>
-        </is>
-      </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>needed</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>nominations</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>quantitative</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>racially</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>received</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>reciprocation</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>sent</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>serve</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>small</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>somewhat</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>stage</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>engaged</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>diversity</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>course-taking</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>enhanced</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>orientation</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>noticeable</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>multivariate</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>lives</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>interactions</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>instrumental</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>institutions</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>favorable</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>enhancing</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>endorsed</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>controlling</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>ease</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>causality</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>building</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>affirmation</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>acceptance</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>background</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>competence</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>faced</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>essay</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>electronics</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>proper</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>discussions</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>prevented</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>past</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>approximately</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>acquired</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>advocated</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
+      <c r="AFE1" s="1" t="inlineStr">
         <is>
           <t>advocates</t>
         </is>
       </c>
-      <c r="AFD1" s="1" t="inlineStr">
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>sessions</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>readily</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
+        <is>
+          <t>protected</t>
+        </is>
+      </c>
+      <c r="AFJ1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="AFK1" s="1" t="inlineStr">
+        <is>
+          <t>policies</t>
+        </is>
+      </c>
+      <c r="AFL1" s="1" t="inlineStr">
+        <is>
+          <t>overwhelming</t>
+        </is>
+      </c>
+      <c r="AFM1" s="1" t="inlineStr">
+        <is>
+          <t>overarching</t>
+        </is>
+      </c>
+      <c r="AFN1" s="1" t="inlineStr">
+        <is>
+          <t>official</t>
+        </is>
+      </c>
+      <c r="AFO1" s="1" t="inlineStr">
         <is>
           <t>advocating</t>
         </is>
       </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>additionally</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
+      <c r="AFP1" s="1" t="inlineStr">
+        <is>
+          <t>struggled</t>
+        </is>
+      </c>
+      <c r="AFQ1" s="1" t="inlineStr">
+        <is>
+          <t>obstacle</t>
+        </is>
+      </c>
+      <c r="AFR1" s="1" t="inlineStr">
+        <is>
+          <t>collaboration</t>
+        </is>
+      </c>
+      <c r="AFS1" s="1" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="AFG1" s="1" t="inlineStr">
+      <c r="AFT1" s="1" t="inlineStr">
         <is>
           <t>expectations</t>
         </is>
       </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>7-hour-a-week</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
+      <c r="AFU1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="AFJ1" s="1" t="inlineStr">
+      <c r="AFV1" s="1" t="inlineStr">
         <is>
           <t>highlighting</t>
         </is>
       </c>
-      <c r="AFK1" s="1" t="inlineStr">
+      <c r="AFW1" s="1" t="inlineStr">
         <is>
           <t>intimidating</t>
         </is>
       </c>
-      <c r="AFL1" s="1" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="AFM1" s="1" t="inlineStr">
+      <c r="AFX1" s="1" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="AFN1" s="1" t="inlineStr">
+      <c r="AFY1" s="1" t="inlineStr">
         <is>
           <t>manage</t>
         </is>
       </c>
-      <c r="AFO1" s="1" t="inlineStr">
-        <is>
-          <t>remained</t>
-        </is>
-      </c>
-      <c r="AFP1" s="1" t="inlineStr">
-        <is>
-          <t>resulting</t>
-        </is>
-      </c>
-      <c r="AFQ1" s="1" t="inlineStr">
-        <is>
-          <t>obstacle</t>
-        </is>
-      </c>
-      <c r="AFR1" s="1" t="inlineStr">
-        <is>
-          <t>self-directed</t>
-        </is>
-      </c>
-      <c r="AFS1" s="1" t="inlineStr">
-        <is>
-          <t>weekend</t>
-        </is>
-      </c>
-      <c r="AFT1" s="1" t="inlineStr">
-        <is>
-          <t>united</t>
-        </is>
-      </c>
-      <c r="AFU1" s="1" t="inlineStr">
-        <is>
-          <t>systems</t>
-        </is>
-      </c>
-      <c r="AFV1" s="1" t="inlineStr">
-        <is>
-          <t>supports</t>
-        </is>
-      </c>
-      <c r="AFW1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="AFX1" s="1" t="inlineStr">
-        <is>
-          <t>spend</t>
-        </is>
-      </c>
-      <c r="AFY1" s="1" t="inlineStr">
-        <is>
-          <t>roughly</t>
-        </is>
-      </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>proportion</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>math</t>
+          <t>maximize</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>leaving</t>
+          <t>allowing</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>inform</t>
+          <t>burden</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>india</t>
+          <t>bartholomew</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>globe</t>
+          <t>ask</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>ambition</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>victories</t>
+          <t>confront</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>far</t>
+          <t>adopted</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>conquer</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>unexplored</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="AGM1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>wanted</t>
         </is>
       </c>
       <c r="AGN1" s="1" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>twice</t>
         </is>
       </c>
       <c r="AGO1" s="1" t="inlineStr">
         <is>
-          <t>systemic</t>
+          <t>theme</t>
         </is>
       </c>
       <c r="AGP1" s="1" t="inlineStr">
         <is>
-          <t>maximize</t>
+          <t>coped</t>
         </is>
       </c>
       <c r="AGQ1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>core</t>
         </is>
       </c>
       <c r="AGR1" s="1" t="inlineStr">
         <is>
-          <t>wanted</t>
+          <t>could</t>
         </is>
       </c>
       <c r="AGS1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="AGT1" s="1" t="inlineStr">
         <is>
-          <t>protected</t>
+          <t>crowd</t>
         </is>
       </c>
       <c r="AGU1" s="1" t="inlineStr">
         <is>
-          <t>readily</t>
+          <t>difficultiesin</t>
         </is>
       </c>
       <c r="AGV1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="AGW1" s="1" t="inlineStr">
         <is>
-          <t>sessions</t>
+          <t>better</t>
         </is>
       </c>
       <c r="AGX1" s="1" t="inlineStr">
         <is>
-          <t>maintaining</t>
+          <t>11-12</t>
         </is>
       </c>
       <c r="AGY1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="AGZ1" s="1" t="inlineStr">
         <is>
-          <t>struggled</t>
+          <t>12-grade</t>
         </is>
       </c>
       <c r="AHA1" s="1" t="inlineStr">
         <is>
-          <t>largely</t>
+          <t>endorsing</t>
         </is>
       </c>
       <c r="AHB1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>diploma</t>
         </is>
       </c>
       <c r="AHC1" s="1" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>differed</t>
         </is>
       </c>
       <c r="AHD1" s="1" t="inlineStr">
         <is>
-          <t>theme</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="AHE1" s="1" t="inlineStr">
         <is>
-          <t>twice</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="AHF1" s="1" t="inlineStr">
         <is>
-          <t>confront</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="AHG1" s="1" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>9-</t>
         </is>
       </c>
       <c r="AHH1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>along</t>
         </is>
       </c>
       <c r="AHI1" s="1" t="inlineStr">
         <is>
-          <t>burden</t>
+          <t>moderate</t>
         </is>
       </c>
       <c r="AHJ1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>five</t>
         </is>
       </c>
       <c r="AHK1" s="1" t="inlineStr">
         <is>
-          <t>gifted-level</t>
+          <t>relations</t>
         </is>
       </c>
       <c r="AHL1" s="1" t="inlineStr">
         <is>
-          <t>adopted</t>
+          <t>values</t>
         </is>
       </c>
       <c r="AHM1" s="1" t="inlineStr">
         <is>
-          <t>highest</t>
+          <t>uniform</t>
         </is>
       </c>
       <c r="AHN1" s="1" t="inlineStr">
         <is>
-          <t>bartholomew</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="AHO1" s="1" t="inlineStr">
         <is>
-          <t>allowing</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="AHP1" s="1" t="inlineStr">
         <is>
-          <t>ambition</t>
+          <t>subscales</t>
         </is>
       </c>
       <c r="AHQ1" s="1" t="inlineStr">
         <is>
-          <t>ask</t>
+          <t>strongly</t>
         </is>
       </c>
       <c r="AHR1" s="1" t="inlineStr">
         <is>
-          <t>multiple-case</t>
+          <t>statistical</t>
         </is>
       </c>
       <c r="AHS1" s="1" t="inlineStr">
         <is>
-          <t>obtained</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="AHT1" s="1" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>reliabilities</t>
         </is>
       </c>
       <c r="AHU1" s="1" t="inlineStr">
         <is>
-          <t>employ</t>
+          <t>reflected</t>
         </is>
       </c>
       <c r="AHV1" s="1" t="inlineStr">
         <is>
-          <t>emphasize</t>
+          <t>gpas</t>
         </is>
       </c>
       <c r="AHW1" s="1" t="inlineStr">
         <is>
-          <t>divided</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="AHX1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>promise</t>
         </is>
       </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>difficultiesin</t>
+          <t>pre-international</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>extraordinary</t>
+          <t>ns</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>crowd</t>
+          <t>motivation/self-regulation</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>could</t>
+          <t>.80</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>core</t>
+          <t>misfit</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>intercepts</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>coped</t>
+          <t>i.e.</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>overarching</t>
+          <t>1,149</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>policies</t>
+          <t>312</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>overwhelming</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>conquer</t>
+          <t>room</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>only</t>
+          <t>aesthetically</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>9-</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>intercepts</t>
+          <t>conditions</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>gpas</t>
+          <t>basic</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>attractive</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>12-grade</t>
+          <t>attribute</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>attributes</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>along</t>
+          <t>beautiful</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>beauty</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>characterized</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>1,149</t>
+          <t>consequence</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>i.e.</t>
+          <t>assigned</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>criteria</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>subscales</t>
+          <t>curtailment</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>promise</t>
+          <t>efficient</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>strongly</t>
+          <t>429</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>statistical</t>
+          <t>refinement</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>endorsing</t>
+          <t>enthusiasm</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>diploma</t>
+          <t>exhaustive</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>index</t>
         </is>
       </c>
       <c r="AJD1" s="1" t="inlineStr">
         <is>
-          <t>reliabilities</t>
+          <t>358</t>
         </is>
       </c>
       <c r="AJE1" s="1" t="inlineStr">
         <is>
-          <t>relations</t>
+          <t>assessing</t>
         </is>
       </c>
       <c r="AJF1" s="1" t="inlineStr">
         <is>
-          <t>reflected</t>
+          <t>error</t>
         </is>
       </c>
       <c r="AJG1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>exhibited</t>
         </is>
       </c>
       <c r="AJH1" s="1" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>hoped</t>
         </is>
       </c>
       <c r="AJI1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>eight</t>
         </is>
       </c>
       <c r="AJJ1" s="1" t="inlineStr">
         <is>
-          <t>uniform</t>
+          <t>discriminant</t>
         </is>
       </c>
       <c r="AJK1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>accurate</t>
         </is>
       </c>
       <c r="AJL1" s="1" t="inlineStr">
         <is>
-          <t>differed</t>
+          <t>accurately</t>
         </is>
       </c>
       <c r="AJM1" s="1" t="inlineStr">
         <is>
-          <t>pre-international</t>
+          <t>people</t>
         </is>
       </c>
       <c r="AJN1" s="1" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>test</t>
         </is>
       </c>
       <c r="AJO1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>perform</t>
         </is>
       </c>
       <c r="AJP1" s="1" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>allow</t>
         </is>
       </c>
       <c r="AJQ1" s="1" t="inlineStr">
         <is>
-          <t>motivation/self-regulation</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="AJR1" s="1" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>supplement</t>
         </is>
       </c>
       <c r="AJS1" s="1" t="inlineStr">
         <is>
-          <t>misfit</t>
+          <t>four</t>
         </is>
       </c>
       <c r="AJT1" s="1" t="inlineStr">
         <is>
-          <t>.80</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="AJU1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>randomly</t>
         </is>
       </c>
       <c r="AJV1" s="1" t="inlineStr">
         <is>
-          <t>about</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="AJW1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>multilevel</t>
         </is>
       </c>
       <c r="AJX1" s="1" t="inlineStr">
         <is>
-          <t>accurate</t>
+          <t>necessary</t>
         </is>
       </c>
       <c r="AJY1" s="1" t="inlineStr">
         <is>
+          <t>programming</t>
+        </is>
+      </c>
+      <c r="AJZ1" s="1" t="inlineStr">
+        <is>
+          <t>measured</t>
+        </is>
+      </c>
+      <c r="AKA1" s="1" t="inlineStr">
+        <is>
+          <t>iowa</t>
+        </is>
+      </c>
+      <c r="AKB1" s="1" t="inlineStr">
+        <is>
+          <t>investigation</t>
+        </is>
+      </c>
+      <c r="AKC1" s="1" t="inlineStr">
+        <is>
+          <t>implemented</t>
+        </is>
+      </c>
+      <c r="AKD1" s="1" t="inlineStr">
+        <is>
+          <t>higher</t>
+        </is>
+      </c>
+      <c r="AKE1" s="1" t="inlineStr">
+        <is>
+          <t>fourth</t>
+        </is>
+      </c>
+      <c r="AKF1" s="1" t="inlineStr">
+        <is>
+          <t>expanded</t>
+        </is>
+      </c>
+      <c r="AKG1" s="1" t="inlineStr">
+        <is>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="AKH1" s="1" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="AKI1" s="1" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="AKJ1" s="1" t="inlineStr">
+        <is>
+          <t>constructs</t>
+        </is>
+      </c>
+      <c r="AKK1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="AKL1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="AKM1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="AKN1" s="1" t="inlineStr">
+        <is>
+          <t>unlike</t>
+        </is>
+      </c>
+      <c r="AKO1" s="1" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="AKP1" s="1" t="inlineStr">
+        <is>
+          <t>following</t>
+        </is>
+      </c>
+      <c r="AKQ1" s="1" t="inlineStr">
+        <is>
+          <t>steps</t>
+        </is>
+      </c>
+      <c r="AKR1" s="1" t="inlineStr">
+        <is>
+          <t>formalizing</t>
+        </is>
+      </c>
+      <c r="AKS1" s="1" t="inlineStr">
+        <is>
+          <t>solve</t>
+        </is>
+      </c>
+      <c r="AKT1" s="1" t="inlineStr">
+        <is>
+          <t>generalization</t>
+        </is>
+      </c>
+      <c r="AKU1" s="1" t="inlineStr">
+        <is>
+          <t>simplicity</t>
+        </is>
+      </c>
+      <c r="AKV1" s="1" t="inlineStr">
+        <is>
+          <t>showing</t>
+        </is>
+      </c>
+      <c r="AKW1" s="1" t="inlineStr">
+        <is>
+          <t>saw</t>
+        </is>
+      </c>
+      <c r="AKX1" s="1" t="inlineStr">
+        <is>
+          <t>urban</t>
+        </is>
+      </c>
+      <c r="AKY1" s="1" t="inlineStr">
+        <is>
+          <t>problems</t>
+        </is>
+      </c>
+      <c r="AKZ1" s="1" t="inlineStr">
+        <is>
+          <t>preferences</t>
+        </is>
+      </c>
+      <c r="ALA1" s="1" t="inlineStr">
+        <is>
+          <t>pleasing</t>
+        </is>
+      </c>
+      <c r="ALB1" s="1" t="inlineStr">
+        <is>
+          <t>perspectives</t>
+        </is>
+      </c>
+      <c r="ALC1" s="1" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="ALD1" s="1" t="inlineStr">
+        <is>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="ALE1" s="1" t="inlineStr">
+        <is>
+          <t>least</t>
+        </is>
+      </c>
+      <c r="ALF1" s="1" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="ALG1" s="1" t="inlineStr">
+        <is>
+          <t>originality</t>
+        </is>
+      </c>
+      <c r="ALH1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="ALI1" s="1" t="inlineStr">
+        <is>
+          <t>unfortunately</t>
+        </is>
+      </c>
+      <c r="ALJ1" s="1" t="inlineStr">
+        <is>
+          <t>lacked</t>
+        </is>
+      </c>
+      <c r="ALK1" s="1" t="inlineStr">
+        <is>
+          <t>show</t>
+        </is>
+      </c>
+      <c r="ALL1" s="1" t="inlineStr">
+        <is>
+          <t>correlated</t>
+        </is>
+      </c>
+      <c r="ALM1" s="1" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
+      <c r="ALN1" s="1" t="inlineStr">
+        <is>
+          <t>seven</t>
+        </is>
+      </c>
+      <c r="ALO1" s="1" t="inlineStr">
+        <is>
+          <t>differently</t>
+        </is>
+      </c>
+      <c r="ALP1" s="1" t="inlineStr">
+        <is>
+          <t>domain-specific</t>
+        </is>
+      </c>
+      <c r="ALQ1" s="1" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="ALR1" s="1" t="inlineStr">
+        <is>
+          <t>careful</t>
+        </is>
+      </c>
+      <c r="ALS1" s="1" t="inlineStr">
+        <is>
           <t>incremental</t>
         </is>
       </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>correlated</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>accurately</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>programming</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>differently</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>appeared</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>show</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>seven</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
+      <c r="ALT1" s="1" t="inlineStr">
+        <is>
+          <t>earlier</t>
+        </is>
+      </c>
+      <c r="ALU1" s="1" t="inlineStr">
+        <is>
+          <t>interchangeably</t>
+        </is>
+      </c>
+      <c r="ALV1" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="ALW1" s="1" t="inlineStr">
+        <is>
+          <t>internal</t>
+        </is>
+      </c>
+      <c r="ALX1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="ALY1" s="1" t="inlineStr">
+        <is>
+          <t>paid</t>
+        </is>
+      </c>
+      <c r="ALZ1" s="1" t="inlineStr">
+        <is>
+          <t>consistency</t>
+        </is>
+      </c>
+      <c r="AMA1" s="1" t="inlineStr">
         <is>
           <t>single-factor</t>
         </is>
       </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
-          <t>constructs</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>room</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>applied</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>allow</t>
-        </is>
-      </c>
-      <c r="AKO1" s="1" t="inlineStr">
-        <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="AKP1" s="1" t="inlineStr">
-        <is>
-          <t>refinement</t>
-        </is>
-      </c>
-      <c r="AKQ1" s="1" t="inlineStr">
-        <is>
-          <t>service</t>
-        </is>
-      </c>
-      <c r="AKR1" s="1" t="inlineStr">
-        <is>
-          <t>domain-specific</t>
-        </is>
-      </c>
-      <c r="AKS1" s="1" t="inlineStr">
+      <c r="AMB1" s="1" t="inlineStr">
+        <is>
+          <t>underexamined</t>
+        </is>
+      </c>
+      <c r="AMC1" s="1" t="inlineStr">
+        <is>
+          <t>measuring</t>
+        </is>
+      </c>
+      <c r="AMD1" s="1" t="inlineStr">
+        <is>
+          <t>specific</t>
+        </is>
+      </c>
+      <c r="AME1" s="1" t="inlineStr">
+        <is>
+          <t>constituted</t>
+        </is>
+      </c>
+      <c r="AMF1" s="1" t="inlineStr">
+        <is>
+          <t>done</t>
+        </is>
+      </c>
+      <c r="AMG1" s="1" t="inlineStr">
+        <is>
+          <t>fleshed</t>
+        </is>
+      </c>
+      <c r="AMH1" s="1" t="inlineStr">
         <is>
           <t>identify</t>
-        </is>
-      </c>
-      <c r="AKT1" s="1" t="inlineStr">
-        <is>
-          <t>expanded</t>
-        </is>
-      </c>
-      <c r="AKU1" s="1" t="inlineStr">
-        <is>
-          <t>randomly</t>
-        </is>
-      </c>
-      <c r="AKV1" s="1" t="inlineStr">
-        <is>
-          <t>supplement</t>
-        </is>
-      </c>
-      <c r="AKW1" s="1" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="AKX1" s="1" t="inlineStr">
-        <is>
-          <t>urban</t>
-        </is>
-      </c>
-      <c r="AKY1" s="1" t="inlineStr">
-        <is>
-          <t>unlike</t>
-        </is>
-      </c>
-      <c r="AKZ1" s="1" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="ALA1" s="1" t="inlineStr">
-        <is>
-          <t>steps</t>
-        </is>
-      </c>
-      <c r="ALB1" s="1" t="inlineStr">
-        <is>
-          <t>solve</t>
-        </is>
-      </c>
-      <c r="ALC1" s="1" t="inlineStr">
-        <is>
-          <t>simplicity</t>
-        </is>
-      </c>
-      <c r="ALD1" s="1" t="inlineStr">
-        <is>
-          <t>showing</t>
-        </is>
-      </c>
-      <c r="ALE1" s="1" t="inlineStr">
-        <is>
-          <t>saw</t>
-        </is>
-      </c>
-      <c r="ALF1" s="1" t="inlineStr">
-        <is>
-          <t>problems</t>
-        </is>
-      </c>
-      <c r="ALG1" s="1" t="inlineStr">
-        <is>
-          <t>preferences</t>
-        </is>
-      </c>
-      <c r="ALH1" s="1" t="inlineStr">
-        <is>
-          <t>pleasing</t>
-        </is>
-      </c>
-      <c r="ALI1" s="1" t="inlineStr">
-        <is>
-          <t>measuring</t>
-        </is>
-      </c>
-      <c r="ALJ1" s="1" t="inlineStr">
-        <is>
-          <t>perspectives</t>
-        </is>
-      </c>
-      <c r="ALK1" s="1" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="ALL1" s="1" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="ALM1" s="1" t="inlineStr">
-        <is>
-          <t>consistency</t>
-        </is>
-      </c>
-      <c r="ALN1" s="1" t="inlineStr">
-        <is>
-          <t>multilevel</t>
-        </is>
-      </c>
-      <c r="ALO1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="ALP1" s="1" t="inlineStr">
-        <is>
-          <t>measured</t>
-        </is>
-      </c>
-      <c r="ALQ1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="ALR1" s="1" t="inlineStr">
-        <is>
-          <t>lacked</t>
-        </is>
-      </c>
-      <c r="ALS1" s="1" t="inlineStr">
-        <is>
-          <t>delivery</t>
-        </is>
-      </c>
-      <c r="ALT1" s="1" t="inlineStr">
-        <is>
-          <t>internal</t>
-        </is>
-      </c>
-      <c r="ALU1" s="1" t="inlineStr">
-        <is>
-          <t>358</t>
-        </is>
-      </c>
-      <c r="ALV1" s="1" t="inlineStr">
-        <is>
-          <t>429</t>
-        </is>
-      </c>
-      <c r="ALW1" s="1" t="inlineStr">
-        <is>
-          <t>assigned</t>
-        </is>
-      </c>
-      <c r="ALX1" s="1" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="ALY1" s="1" t="inlineStr">
-        <is>
-          <t>conditions</t>
-        </is>
-      </c>
-      <c r="ALZ1" s="1" t="inlineStr">
-        <is>
-          <t>differentiation</t>
-        </is>
-      </c>
-      <c r="AMA1" s="1" t="inlineStr">
-        <is>
-          <t>eight</t>
-        </is>
-      </c>
-      <c r="AMB1" s="1" t="inlineStr">
-        <is>
-          <t>fourth</t>
-        </is>
-      </c>
-      <c r="AMC1" s="1" t="inlineStr">
-        <is>
-          <t>constituted</t>
-        </is>
-      </c>
-      <c r="AMD1" s="1" t="inlineStr">
-        <is>
-          <t>higher</t>
-        </is>
-      </c>
-      <c r="AME1" s="1" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="AMF1" s="1" t="inlineStr">
-        <is>
-          <t>investigation</t>
-        </is>
-      </c>
-      <c r="AMG1" s="1" t="inlineStr">
-        <is>
-          <t>iowa</t>
-        </is>
-      </c>
-      <c r="AMH1" s="1" t="inlineStr">
-        <is>
-          <t>originality</t>
-        </is>
-      </c>
-      <c r="AMI1" s="1" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="AMJ1" s="1" t="inlineStr">
-        <is>
-          <t>discriminant</t>
-        </is>
-      </c>
-      <c r="AMK1" s="1" t="inlineStr">
-        <is>
-          <t>least</t>
-        </is>
-      </c>
-      <c r="AML1" s="1" t="inlineStr">
-        <is>
-          <t>earlier</t>
-        </is>
-      </c>
-      <c r="AMM1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="AMN1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="AMO1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="AMP1" s="1" t="inlineStr">
-        <is>
-          <t>necessary</t>
-        </is>
-      </c>
-      <c r="AMQ1" s="1" t="inlineStr">
-        <is>
-          <t>hoped</t>
-        </is>
-      </c>
-      <c r="AMR1" s="1" t="inlineStr">
-        <is>
-          <t>exhibited</t>
-        </is>
-      </c>
-      <c r="AMS1" s="1" t="inlineStr">
-        <is>
-          <t>underexamined</t>
-        </is>
-      </c>
-      <c r="AMT1" s="1" t="inlineStr">
-        <is>
-          <t>careful</t>
-        </is>
-      </c>
-      <c r="AMU1" s="1" t="inlineStr">
-        <is>
-          <t>unfortunately</t>
-        </is>
-      </c>
-      <c r="AMV1" s="1" t="inlineStr">
-        <is>
-          <t>assessing</t>
-        </is>
-      </c>
-      <c r="AMW1" s="1" t="inlineStr">
-        <is>
-          <t>people</t>
-        </is>
-      </c>
-      <c r="AMX1" s="1" t="inlineStr">
-        <is>
-          <t>paid</t>
-        </is>
-      </c>
-      <c r="AMY1" s="1" t="inlineStr">
-        <is>
-          <t>observed</t>
-        </is>
-      </c>
-      <c r="AMZ1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="ANA1" s="1" t="inlineStr">
-        <is>
-          <t>interchangeably</t>
-        </is>
-      </c>
-      <c r="ANB1" s="1" t="inlineStr">
-        <is>
-          <t>perform</t>
-        </is>
-      </c>
-      <c r="ANC1" s="1" t="inlineStr">
-        <is>
-          <t>aesthetically</t>
-        </is>
-      </c>
-      <c r="AND1" s="1" t="inlineStr">
-        <is>
-          <t>attractive</t>
-        </is>
-      </c>
-      <c r="ANE1" s="1" t="inlineStr">
-        <is>
-          <t>attribute</t>
-        </is>
-      </c>
-      <c r="ANF1" s="1" t="inlineStr">
-        <is>
-          <t>exhaustive</t>
-        </is>
-      </c>
-      <c r="ANG1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-      <c r="ANH1" s="1" t="inlineStr">
-        <is>
-          <t>generalization</t>
-        </is>
-      </c>
-      <c r="ANI1" s="1" t="inlineStr">
-        <is>
-          <t>formalizing</t>
-        </is>
-      </c>
-      <c r="ANJ1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
-      <c r="ANK1" s="1" t="inlineStr">
-        <is>
-          <t>flexibility</t>
-        </is>
-      </c>
-      <c r="ANL1" s="1" t="inlineStr">
-        <is>
-          <t>533</t>
-        </is>
-      </c>
-      <c r="ANM1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-      <c r="ANN1" s="1" t="inlineStr">
-        <is>
-          <t>enthusiasm</t>
-        </is>
-      </c>
-      <c r="ANO1" s="1" t="inlineStr">
-        <is>
-          <t>attributes</t>
-        </is>
-      </c>
-      <c r="ANP1" s="1" t="inlineStr">
-        <is>
-          <t>efficient</t>
-        </is>
-      </c>
-      <c r="ANQ1" s="1" t="inlineStr">
-        <is>
-          <t>curtailment</t>
-        </is>
-      </c>
-      <c r="ANR1" s="1" t="inlineStr">
-        <is>
-          <t>criteria</t>
-        </is>
-      </c>
-      <c r="ANS1" s="1" t="inlineStr">
-        <is>
-          <t>consequence</t>
-        </is>
-      </c>
-      <c r="ANT1" s="1" t="inlineStr">
-        <is>
-          <t>characterized</t>
-        </is>
-      </c>
-      <c r="ANU1" s="1" t="inlineStr">
-        <is>
-          <t>beauty</t>
-        </is>
-      </c>
-      <c r="ANV1" s="1" t="inlineStr">
-        <is>
-          <t>beautiful</t>
-        </is>
-      </c>
-      <c r="ANW1" s="1" t="inlineStr">
-        <is>
-          <t>fleshed</t>
         </is>
       </c>
     </row>
@@ -5757,40 +5552,40 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="E2" t="n">
         <v>0.7999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G2" t="n">
         <v>0.6899999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5900000000000001</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="K2" t="n">
         <v>0.5700000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="N2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="O2" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="P2" t="n">
         <v>0.52</v>
@@ -5799,16 +5594,16 @@
         <v>0.52</v>
       </c>
       <c r="R2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="S2" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="T2" t="n">
         <v>0.51</v>
       </c>
       <c r="U2" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
         <v>0.48</v>
@@ -5817,16 +5612,16 @@
         <v>0.48</v>
       </c>
       <c r="X2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="Y2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.45</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.44</v>
       </c>
       <c r="AB2" t="n">
         <v>0.44</v>
@@ -5850,25 +5645,25 @@
         <v>0.42</v>
       </c>
       <c r="AI2" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>0.4000000000000001</v>
-      </c>
       <c r="AK2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.4</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="AN2" t="n">
         <v>0.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AP2" t="n">
         <v>0.39</v>
@@ -5877,13 +5672,13 @@
         <v>0.39</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AU2" t="n">
         <v>0.38</v>
@@ -5892,10 +5687,10 @@
         <v>0.38</v>
       </c>
       <c r="AW2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AX2" t="n">
         <v>0.3700000000000001</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.37</v>
       </c>
       <c r="AY2" t="n">
         <v>0.37</v>
@@ -5913,7 +5708,7 @@
         <v>0.36</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="BE2" t="n">
         <v>0.35</v>
@@ -5928,46 +5723,46 @@
         <v>0.35</v>
       </c>
       <c r="BI2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="BR2" t="n">
         <v>0.34</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BS2" t="n">
         <v>0.34</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BT2" t="n">
         <v>0.34</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BU2" t="n">
         <v>0.34</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BV2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.33</v>
       </c>
       <c r="BW2" t="n">
         <v>0.33</v>
@@ -5991,7 +5786,7 @@
         <v>0.33</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="CE2" t="n">
         <v>0.32</v>
@@ -6000,16 +5795,16 @@
         <v>0.32</v>
       </c>
       <c r="CG2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CJ2" t="n">
         <v>0.3100000000000001</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.31</v>
       </c>
       <c r="CK2" t="n">
         <v>0.31</v>
@@ -6021,10 +5816,10 @@
         <v>0.31</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="CP2" t="n">
         <v>0.3</v>
@@ -6033,10 +5828,10 @@
         <v>0.3</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="CT2" t="n">
         <v>0.29</v>
@@ -6081,10 +5876,10 @@
         <v>0.28</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DJ2" t="n">
         <v>0.27</v>
@@ -6129,7 +5924,7 @@
         <v>0.26</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="DY2" t="n">
         <v>0.25</v>
@@ -6153,13 +5948,13 @@
         <v>0.25</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EI2" t="n">
         <v>0.24</v>
@@ -6219,10 +6014,10 @@
         <v>0.23</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FD2" t="n">
         <v>0.22</v>
@@ -6249,22 +6044,22 @@
         <v>0.22</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FR2" t="n">
         <v>0.21</v>
@@ -6306,7 +6101,7 @@
         <v>0.21</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GF2" t="n">
         <v>0.2</v>
@@ -6390,22 +6185,22 @@
         <v>0.2</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="HM2" t="n">
         <v>0.19</v>
@@ -6429,28 +6224,28 @@
         <v>0.19</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="IB2" t="n">
         <v>0.18</v>
@@ -6462,13 +6257,13 @@
         <v>0.18</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IH2" t="n">
         <v>0.17</v>
@@ -6546,25 +6341,25 @@
         <v>0.17</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JN2" t="n">
         <v>0.16</v>
@@ -6663,34 +6458,34 @@
         <v>0.16</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KU2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KV2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KX2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KZ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="LD2" t="n">
         <v>0.15</v>
@@ -6738,43 +6533,43 @@
         <v>0.15</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LU2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="MF2" t="n">
         <v>0.14</v>
@@ -6810,19 +6605,19 @@
         <v>0.14</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MU2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MV2" t="n">
         <v>0.13</v>
@@ -6900,64 +6695,64 @@
         <v>0.13</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="OO2" t="n">
         <v>0.12</v>
@@ -7053,52 +6848,52 @@
         <v>0.12</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PU2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QC2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QD2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QE2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QG2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="QJ2" t="n">
         <v>0.11</v>
@@ -7155,79 +6950,79 @@
         <v>0.11</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RT2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SA2" t="n">
         <v>0.1</v>
@@ -7533,91 +7328,91 @@
         <v>0.1</v>
       </c>
       <c r="VX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WD2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WE2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WF2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WG2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WH2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WI2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WJ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WK2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WL2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WM2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WN2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WO2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WP2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WQ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WR2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WT2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WU2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WV2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WW2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WX2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WY2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="WZ2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="XA2" t="n">
         <v>0.09</v>
@@ -7911,7 +7706,7 @@
         <v>0.09</v>
       </c>
       <c r="AAT2" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AAU2" t="n">
         <v>0.08</v>
@@ -8391,229 +8186,229 @@
         <v>0.08</v>
       </c>
       <c r="AGX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AGZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHP2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHQ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AJU2" t="n">
         <v>0.06</v>
@@ -8811,129 +8606,6 @@
         <v>0.06</v>
       </c>
       <c r="AMH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AML2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMW2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMX2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMY2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AMZ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANA2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANB2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AND2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANK2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANL2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANM2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANN2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANP2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANU2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="ANW2" t="n">
         <v>0.06</v>
       </c>
     </row>
